--- a/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
@@ -26,74 +26,75 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
+    <t>资产编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 使用部门 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借出单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用合同编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用开始日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定返还日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际返还日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>资产类型</t>
-  </si>
-  <si>
-    <t>资产编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 使用部门 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用开始日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定返还日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际返还日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,58 +507,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
@@ -5,14 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2400" windowWidth="23040" windowHeight="8775"/>
+    <workbookView xWindow="4040" yWindow="2400" windowWidth="23040" windowHeight="8780"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -24,85 +25,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+  <si>
+    <t>资产类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>ALD</t>
+  </si>
+  <si>
+    <t>APO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IED</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>LSD</t>
+  </si>
+  <si>
+    <t>ECD</t>
+  </si>
+  <si>
+    <t>DTD</t>
+  </si>
+  <si>
+    <t>OSD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>ISD</t>
+  </si>
+  <si>
+    <t>NBPO</t>
+  </si>
+  <si>
+    <t>BSEO</t>
+  </si>
+  <si>
+    <t>SDEO</t>
+  </si>
+  <si>
+    <t>ADMN</t>
+  </si>
+  <si>
+    <t>FPO</t>
+  </si>
+  <si>
+    <t>DANP</t>
+  </si>
+  <si>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 使用部门 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用部门</t>
   </si>
   <si>
     <t>部门代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>条码类型</t>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>借出单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借出单位联系人</t>
   </si>
   <si>
     <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>借用合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>借用合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>借用开始日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定返还日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际返还日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSDCD_预计归还日</t>
+  </si>
+  <si>
+    <t>PSDCD_实际归还日</t>
+  </si>
+  <si>
+    <t>资产说明</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>备注1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用設備</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗金属大型</t>
+  </si>
+  <si>
+    <t>抗金属</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>线缆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +184,19 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,8 +221,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,90 +565,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="8" width="8.875" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="12.25" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.625" customWidth="1"/>
+    <col min="19" max="20" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.58203125" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$3:$C$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$3:$D$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$E$3:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>140000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>150000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>210000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>180000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E6B865-45C0-4B1E-A506-FE249769250F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="2400" windowWidth="23040" windowHeight="8780"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>资产类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -165,12 +166,16 @@
   </si>
   <si>
     <t>线缆</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -564,33 +569,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
     <col min="15" max="15" width="12.25" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.58203125" customWidth="1"/>
+    <col min="19" max="20" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.625" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -680,27 +685,27 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C$3:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$20</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$E$3:$E$6</xm:f>
+            <xm:f>Sheet2!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
@@ -711,14 +716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
@@ -742,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>140000</v>
+        <v>140001</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -753,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>150000</v>
+        <v>150001</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -764,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>210000</v>
+        <v>210001</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -775,7 +780,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>180000</v>
+        <v>180001</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -786,7 +791,10 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>160000</v>
+        <v>160001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -794,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>240000</v>
+        <v>240001</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -802,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>130000</v>
+        <v>130001</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -810,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>230000</v>
+        <v>230001</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -818,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>120000</v>
+        <v>120001</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -826,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>170000</v>
+        <v>170001</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -834,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>200000</v>
+        <v>200001</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -842,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>190000</v>
+        <v>190001</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -858,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>260000</v>
+        <v>260001</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -866,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>220000</v>
+        <v>220001</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -874,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>100000</v>
+        <v>100001</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -882,7 +890,7 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>110000</v>
+        <v>110001</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -890,7 +898,7 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>250000</v>
+        <v>250001</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E6B865-45C0-4B1E-A506-FE249769250F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="2400" windowWidth="23040" windowHeight="8780"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>资产类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -166,16 +165,12 @@
   </si>
   <si>
     <t>线缆</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -569,33 +564,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="12.25" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.625" customWidth="1"/>
+    <col min="19" max="20" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.58203125" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,27 +680,27 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$3:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$20</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$E$3:$E$7</xm:f>
+            <xm:f>Sheet2!$E$3:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
@@ -716,14 +711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
@@ -747,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>140001</v>
+        <v>140000</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -758,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>150001</v>
+        <v>150000</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -769,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>210001</v>
+        <v>210000</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -780,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>180001</v>
+        <v>180000</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -791,10 +786,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>160001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -802,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>240001</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -810,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>130001</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -818,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>230001</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -826,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>120001</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -834,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>170001</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -842,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>200001</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -850,7 +842,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>190001</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -866,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>260001</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -874,7 +866,7 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>220001</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -882,7 +874,7 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>100001</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -890,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>110001</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -898,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>250001</v>
+        <v>250000</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_queren2\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANSCS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF5D44D-C096-4E9D-93D0-038042C4B5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="2400" windowWidth="23040" windowHeight="8780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>资产类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -165,12 +166,16 @@
   </si>
   <si>
     <t>线缆</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -221,11 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,33 +570,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
     <col min="15" max="15" width="12.25" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.58203125" customWidth="1"/>
+    <col min="19" max="20" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.625" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -680,27 +686,27 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C$3:$C$20</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$20</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Sheet2!$E$3:$E$6</xm:f>
+            <xm:f>Sheet2!$E$3:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
@@ -711,14 +717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
@@ -738,159 +744,162 @@
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>140000</v>
+      <c r="D3" s="2">
+        <v>140001</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>150000</v>
+      <c r="D4" s="2">
+        <v>150001</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>210000</v>
+      <c r="D5" s="2">
+        <v>210001</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>180000</v>
+      <c r="D6" s="2">
+        <v>180001</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>160000</v>
+      <c r="D7" s="2">
+        <v>160001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>240000</v>
+      <c r="D8" s="2">
+        <v>240001</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>130000</v>
+      <c r="D9" s="2">
+        <v>130001</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>230000</v>
+      <c r="D10" s="2">
+        <v>230001</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>120000</v>
+      <c r="D11" s="2">
+        <v>120001</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>170000</v>
+      <c r="D12" s="2">
+        <v>170001</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>200000</v>
+      <c r="D13" s="2">
+        <v>200001</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>190000</v>
+      <c r="D14" s="2">
+        <v>190001</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>100004</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>260000</v>
+      <c r="D16" s="2">
+        <v>260001</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17">
-        <v>220000</v>
+      <c r="D17" s="2">
+        <v>220001</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
-        <v>100000</v>
+      <c r="D18" s="2">
+        <v>100001</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19">
-        <v>110000</v>
+      <c r="D19" s="2">
+        <v>110001</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>250000</v>
+      <c r="D20" s="2">
+        <v>250001</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_001\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E6B865-45C0-4B1E-A506-FE249769250F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15276"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>资产类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -40,142 +39,167 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>APD</t>
-  </si>
-  <si>
-    <t>ALD</t>
-  </si>
-  <si>
-    <t>APO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IED</t>
-  </si>
-  <si>
-    <t>CTA</t>
-  </si>
-  <si>
-    <t>LSD</t>
-  </si>
-  <si>
-    <t>ECD</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>OSD</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>ISD</t>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>资产编号</t>
+  </si>
+  <si>
+    <t>使用部门</t>
+  </si>
+  <si>
+    <t>部门代码</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>条码类型</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>借出单位</t>
+  </si>
+  <si>
+    <t>借出单位联系人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>借用合同</t>
+  </si>
+  <si>
+    <t>借用合同编号</t>
+  </si>
+  <si>
+    <t>借用开始日</t>
+  </si>
+  <si>
+    <t>PSDCD_预计归还日</t>
+  </si>
+  <si>
+    <t>PSDCD_实际归还日</t>
+  </si>
+  <si>
+    <t>资产说明</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>借用設備</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗金属大型</t>
+  </si>
+  <si>
+    <t>抗金属</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>线缆</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDG-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDG-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDG-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDG-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPPO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDEO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NBPO</t>
-  </si>
-  <si>
-    <t>BSEO</t>
-  </si>
-  <si>
-    <t>SDEO</t>
-  </si>
-  <si>
-    <t>ADMN</t>
-  </si>
-  <si>
-    <t>FPO</t>
-  </si>
-  <si>
-    <t>DANP</t>
-  </si>
-  <si>
-    <t>资产类型</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>资产编号</t>
-  </si>
-  <si>
-    <t>使用部门</t>
-  </si>
-  <si>
-    <t>部门代码</t>
-  </si>
-  <si>
-    <t>管理者</t>
-  </si>
-  <si>
-    <t>条码类型</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>借出单位</t>
-  </si>
-  <si>
-    <t>借出单位联系人</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>借用合同</t>
-  </si>
-  <si>
-    <t>借用合同编号</t>
-  </si>
-  <si>
-    <t>借用开始日</t>
-  </si>
-  <si>
-    <t>PSDCD_预计归还日</t>
-  </si>
-  <si>
-    <t>PSDCD_实际归还日</t>
-  </si>
-  <si>
-    <t>资产说明</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>备注1</t>
-  </si>
-  <si>
-    <t>借用設備</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗金属大型</t>
-  </si>
-  <si>
-    <t>抗金属</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>线缆</t>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -569,93 +593,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
+    <col min="4" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="8.8984375" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.19921875" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" customWidth="1"/>
+    <col min="12" max="12" width="13.3984375" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="12.19921875" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.625" customWidth="1"/>
+    <col min="19" max="20" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.59765625" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -685,25 +709,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$C$3:$C$20</xm:f>
+            <xm:f>Sheet2!$C$3:$C$22</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$D$3:$D$20</xm:f>
+            <xm:f>Sheet2!$D$3:$D$13</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$E$3:$E$7</xm:f>
           </x14:formula1>
@@ -716,14 +740,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
@@ -736,169 +758,158 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>140001</v>
+        <v>100001</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>150001</v>
+        <v>110001</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>210001</v>
+        <v>130001</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>180001</v>
+        <v>140001</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>160001</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>240001</v>
+        <v>170001</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>130001</v>
+        <v>180001</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>230001</v>
+        <v>190001</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>120001</v>
+        <v>200001</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>170001</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="C13" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>200001</v>
+        <v>260001</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>190001</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>100004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>260001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>220001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>110001</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>250001</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
+++ b/controller/src/main/resources/jxls_templates/jieruzichan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BASE\newparkcloud_001\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\01_local\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15276"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>资产类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -116,91 +116,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ASDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDG-6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDG-3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDG-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSDG-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>HAPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDC1</t>
+  </si>
+  <si>
+    <t>ASDC2</t>
+  </si>
+  <si>
+    <t>ASDC3</t>
+  </si>
+  <si>
+    <t>SPDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSDC</t>
+  </si>
+  <si>
+    <t>ISDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSDC</t>
   </si>
   <si>
     <t>FAPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DPPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SDEO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NBPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECDO</t>
+  </si>
+  <si>
+    <t>OMPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +184,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -227,6 +192,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -247,17 +218,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -596,30 +571,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" customWidth="1"/>
-    <col min="4" max="6" width="10.8984375" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" customWidth="1"/>
-    <col min="12" max="12" width="13.3984375" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" customWidth="1"/>
-    <col min="15" max="15" width="12.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="12.25" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.59765625" customWidth="1"/>
+    <col min="19" max="20" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.625" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -741,11 +716,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
@@ -765,10 +742,10 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>100001</v>
       </c>
       <c r="E3" t="s">
@@ -776,10 +753,10 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>110001</v>
       </c>
       <c r="E4" t="s">
@@ -787,10 +764,10 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>130001</v>
       </c>
       <c r="E5" t="s">
@@ -798,10 +775,10 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>140001</v>
       </c>
       <c r="E6" t="s">
@@ -809,10 +786,10 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>160001</v>
       </c>
       <c r="E7" t="s">
@@ -820,97 +797,71 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>170001</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>180001</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>190001</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>200001</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>220001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3">
         <v>250001</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="2:5">
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3">
         <v>260001</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="15" spans="2:5">
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
